--- a/biology/Médecine/Artère_utérine/Artère_utérine.xlsx
+++ b/biology/Médecine/Artère_utérine/Artère_utérine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_ut%C3%A9rine</t>
+          <t>Artère_utérine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère utérine est une artère du petit bassin de la femme. C'est une branche de la division antérieure de l'artère iliaque interne. Cette artère vascularise l'utérus et les deux tiers médiaux de la trompe utérine. Elle est hypertrophiée au cours de la grossesse.
 L'artère utérine naît du tronc antérieur de l'artère iliaque interne en dessous de l'origine de l'artère obturatrice. De la paroi latérale du petit bassin, elle parcourt le ligament large en direction de l'utérus. Elle croise l'uretère en avant puis se divise à proximité de l'utérus, au niveau de la jonction cervico-utérine. Une branche majeure se dirige en haut dans le ligament large vers le hile ovarien où elle s'anastomose avec des branches de l'artère ovarique. Une autre branche se dirige en bas vers le col utérin où elle s'anastomose avec des branches de l'artère vaginale.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_ut%C3%A9rine</t>
+          <t>Artère_utérine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Uterine artery » (voir la liste des auteurs).</t>
         </is>
